--- a/ptt_baseball/ptt_baseball.xlsx
+++ b/ptt_baseball/ptt_baseball.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ptt crawler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\crawler\ptt_baseball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C5D38-BC69-4742-90F0-FA13B51DA0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA81CF23-D323-4124-923B-DD7338ABE403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>標題</t>
   </si>
@@ -31,43 +31,118 @@
     <t>日期</t>
   </si>
   <si>
-    <t>[分享] 林凱威展現好歌喉影片</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6/16</t>
-  </si>
-  <si>
-    <t>[討論] 喵喵的打擊算是復甦了嗎？</t>
+    <t>[分享] CPBL 上半季 六隊二軍整體成績 (~06/17)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6/17</t>
+  </si>
+  <si>
+    <t>[情報] 張育成IG:出發佛羅里達打復健賽</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Re: [新聞] 大巨蛋遇大雨就漏水 蔣萬安：列入年</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>[新聞] 味全龍》髒辮成個人新特色！ 吉力吉撈．</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>[新聞] MLB》無緣為武士隊打經典賽 日裔好手有</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>[討論] 林晨樺2013年投球局數少拿到15勝多厲害</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>[新聞] U23重砲捕手盧柏華挑戰中職選秀 林威助鼓勵</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>[新聞] SPC MLB》挨金鶯4轟寫生涯最慘紀錄！ 費城人</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Re: [討論] 註冊四名洋砲不受洋將使用限制規定會怎樣</t>
+  </si>
+  <si>
+    <t>[分享] 2024中職wRC+ ~6/16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>[新聞] OCC 高秉洋連3年中職測試會！去年飆速15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>[分享] 2024中職ERA+ ~6/16</t>
+  </si>
+  <si>
+    <t>Re: [討論] 吉田正尚怎麼了</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>[討論] 林安可是不是特別挺勝騎士</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>[分享] 新莊球場賽前觀禮</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[分享] CPBL上週戰績 week12</t>
+  </si>
+  <si>
+    <t>[分享] MLB排名</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>[分享] 費城人紅襪大都會 主場心得</t>
+  </si>
+  <si>
     <t>[公告] 板規</t>
   </si>
   <si>
     <t>10/14</t>
   </si>
   <si>
-    <t>[LIVE] NPB 養樂多 v 歐力士　 Yajure-山下舜平大</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>[LIVE] CPBL例行賽#166 開放ACG點歌中(?)</t>
-  </si>
-  <si>
-    <t>爆</t>
-  </si>
-  <si>
-    <t>[LIVE] CPBL例行賽#165 統一 VS 中信兄弟 @大巨蛋</t>
-  </si>
-  <si>
-    <t>[LIVE] CPBL例行賽#166 樂天 VS 味全     @天母</t>
+    <t>[整理] 2024棒球賽事轉播節目表</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1/01</t>
   </si>
 </sst>
 </file>
@@ -439,15 +514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.25" customWidth="1"/>
+    <col min="1" max="1" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,10 +563,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -521,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -529,13 +604,156 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
